--- a/data/trans_dic/Q25_A_R3-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/Q25_A_R3-Habitat-trans_dic.xlsx
@@ -697,7 +697,7 @@
         <v>0.2410690366512463</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.1312982882552429</v>
+        <v>0.1312982882552428</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1370568068508805</v>
+        <v>0.1406379804207948</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1873194950253067</v>
+        <v>0.1867381869681125</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1179177288127097</v>
+        <v>0.1106234649423306</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.05884380461721894</v>
+        <v>0.06045837773250146</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.2421471365699287</v>
+        <v>0.2513697651371853</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.2714834592839935</v>
+        <v>0.2764637963917643</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.264749039218263</v>
+        <v>0.2598297534847046</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1083114425897335</v>
+        <v>0.110437699295682</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.184016756117176</v>
+        <v>0.182058094747218</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.2279441148657022</v>
+        <v>0.2335890409419455</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.1864218158248553</v>
+        <v>0.1851734558708087</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.09185593673784495</v>
+        <v>0.08487516824008871</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.2792440573941077</v>
+        <v>0.2743050117162243</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.3203146226380691</v>
+        <v>0.3049867408251835</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.2562734789583744</v>
+        <v>0.2473556458269336</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1733300685891363</v>
+        <v>0.1678062682484666</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.5382791974706119</v>
+        <v>0.5439157113416735</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.5116025014249291</v>
+        <v>0.5157945951830027</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.4982605979421443</v>
+        <v>0.505580677584566</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.2822779361840639</v>
+        <v>0.2805671318580301</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.3134939420875846</v>
+        <v>0.3064482459947798</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.3446006004661666</v>
+        <v>0.3476825440268444</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.3067173480091946</v>
+        <v>0.3042173467609549</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.1928039926481066</v>
+        <v>0.1816491122406922</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1904184409433756</v>
+        <v>0.1908371464490516</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.2128048499239314</v>
+        <v>0.2164878595640938</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1629415901758483</v>
+        <v>0.1608769856317018</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1057105946000163</v>
+        <v>0.1086318948954689</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.233187027726923</v>
+        <v>0.2399921301625207</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.3269662726277158</v>
+        <v>0.328483183808172</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.2206670555040199</v>
+        <v>0.2156589109641153</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.2495767634849409</v>
+        <v>0.2462512671100889</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.221684024010246</v>
+        <v>0.2208786264642997</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.2624448163713619</v>
+        <v>0.2617767324916094</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.1964315883176065</v>
+        <v>0.1950471055797899</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1711174543168912</v>
+        <v>0.1644647600112816</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.3248914594083387</v>
+        <v>0.3242073652244835</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.3281268315416567</v>
+        <v>0.3314742282708479</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2747590629633495</v>
+        <v>0.2689155046268303</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.218433935881271</v>
+        <v>0.2180604497217683</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.4536387788132307</v>
+        <v>0.4549466944042972</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.5370212628403271</v>
+        <v>0.5301748654611418</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.3894928933967053</v>
+        <v>0.3893494704390423</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.4190738419113963</v>
+        <v>0.4251139971213461</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.3399437336060965</v>
+        <v>0.3326566473269013</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.3643674242012189</v>
+        <v>0.3619561080176555</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.2928508617039828</v>
+        <v>0.2964305680749539</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.2637732145000696</v>
+        <v>0.2650064198279624</v>
       </c>
     </row>
     <row r="10">
@@ -957,7 +957,7 @@
         <v>0.2632753194633914</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.2638619237340296</v>
+        <v>0.2638619237340295</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.3227302133498158</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1992106230319987</v>
+        <v>0.204078759949948</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.2260335775010044</v>
+        <v>0.2233752886889893</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.2028413549813969</v>
+        <v>0.2081385873921338</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1111681890984528</v>
+        <v>0.112483514750208</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.3318309201016966</v>
+        <v>0.3118294961039235</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.2899017486123585</v>
+        <v>0.2856772752714167</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.1705986151381961</v>
+        <v>0.1737188558569006</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1779352753193848</v>
+        <v>0.1788348991084544</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.2507979354327841</v>
+        <v>0.2472476947373735</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.2656891592221065</v>
+        <v>0.2699547804122748</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.2164684968680356</v>
+        <v>0.2159251036216008</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.1554110585323998</v>
+        <v>0.154737692572917</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.3556657501231424</v>
+        <v>0.3515892144307363</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.3681963397972466</v>
+        <v>0.3674850677658158</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.3545312946512445</v>
+        <v>0.3701170044582758</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.2553979423307609</v>
+        <v>0.2528852256070829</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.6261296404289763</v>
+        <v>0.6409686068606176</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.4816545954401805</v>
+        <v>0.4789404573651569</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.3609007438715226</v>
+        <v>0.3776105364859467</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.3695538145239045</v>
+        <v>0.3636507735383347</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.3944982878739968</v>
+        <v>0.3865850971216736</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.3842327892256466</v>
+        <v>0.393271372160381</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.3368007665487996</v>
+        <v>0.3341586842237321</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.2728322318987909</v>
+        <v>0.2636873384964828</v>
       </c>
     </row>
     <row r="13">
@@ -1105,7 +1105,7 @@
         <v>0.288653427168949</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.2088605101584029</v>
+        <v>0.2088605101584028</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.162138809922014</v>
+        <v>0.1637236762193698</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.2115425442794024</v>
+        <v>0.2036988546206978</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2021553076087982</v>
+        <v>0.2020619190748532</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1229296679115053</v>
+        <v>0.1209763201689326</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2706761580560334</v>
+        <v>0.2799107507551558</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.2028592849684347</v>
+        <v>0.2038964787370386</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.2572687862369523</v>
+        <v>0.2488219157926089</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.2008854159504971</v>
+        <v>0.1987965250656979</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.2192806688011827</v>
+        <v>0.2181513749957196</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.2266297937913343</v>
+        <v>0.2208274275221984</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.2397550085699885</v>
+        <v>0.2381866298336102</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1686337626230709</v>
+        <v>0.170741888046447</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.2829906954561587</v>
+        <v>0.2865311188486975</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.3373290888118918</v>
+        <v>0.3350683049220028</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.3303471735659009</v>
+        <v>0.3279198235967609</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2327224787923042</v>
+        <v>0.2329480614994472</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.4691145107480232</v>
+        <v>0.4768208323893214</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.3770343045550379</v>
+        <v>0.3907304529525286</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.4307856356336446</v>
+        <v>0.4207642335163423</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.3517171542163732</v>
+        <v>0.3349972215150322</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.3258202677909733</v>
+        <v>0.3281239934044795</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.3286558713036574</v>
+        <v>0.3245912220535128</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.3433381907227906</v>
+        <v>0.3388597633907756</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.256317394700171</v>
+        <v>0.2531665838172231</v>
       </c>
     </row>
     <row r="16">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.2031807691993537</v>
+        <v>0.203486756068087</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.233622780782563</v>
+        <v>0.2343413397403316</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.2068965175451543</v>
+        <v>0.2031136499220758</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1275767917852418</v>
+        <v>0.1265673933661295</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.3210724705095344</v>
+        <v>0.3119388067854633</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.3150182362868461</v>
+        <v>0.3198234149856945</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.2669612256824668</v>
+        <v>0.2695284961120149</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.2271923559926061</v>
+        <v>0.2282558521993859</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.2485066853999754</v>
+        <v>0.2451247979017531</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.2718429117237569</v>
+        <v>0.272045604986772</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.2331613379109153</v>
+        <v>0.2372730898037181</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.1710660767008779</v>
+        <v>0.1734642842021262</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.2751687751551213</v>
+        <v>0.2743395467585525</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.2976004358509413</v>
+        <v>0.2984479517284522</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.2706394286929741</v>
+        <v>0.2670454791690278</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1875025410583235</v>
+        <v>0.1865264721875296</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.4430311212792322</v>
+        <v>0.4418790576799023</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.415923132293976</v>
+        <v>0.4206206050259827</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.3609156501673641</v>
+        <v>0.3656569510912325</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.3122210453938706</v>
+        <v>0.3171903113974662</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.3114687061958223</v>
+        <v>0.3102532536489335</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.3253630244229864</v>
+        <v>0.3261322665129968</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.2885631249987764</v>
+        <v>0.2925783854420679</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.2240380353180568</v>
+        <v>0.2241318849962466</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>17492</v>
+        <v>17949</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>36196</v>
+        <v>36083</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>15989</v>
+        <v>15000</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>7169</v>
+        <v>7366</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>10059</v>
+        <v>10442</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>19965</v>
+        <v>20331</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>16794</v>
+        <v>16482</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>5670</v>
+        <v>5782</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>31130</v>
+        <v>30799</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>60808</v>
+        <v>62314</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>37103</v>
+        <v>36855</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>16000</v>
+        <v>14784</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>35640</v>
+        <v>35009</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>61894</v>
+        <v>58933</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>34749</v>
+        <v>33540</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>21117</v>
+        <v>20444</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>22361</v>
+        <v>22595</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>37623</v>
+        <v>37931</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>31607</v>
+        <v>32071</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>14778</v>
+        <v>14688</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>53034</v>
+        <v>51842</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>91929</v>
+        <v>92751</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>61045</v>
+        <v>60547</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>33584</v>
+        <v>31641</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>35169</v>
+        <v>35246</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>54621</v>
+        <v>55566</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>35169</v>
+        <v>34724</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>17961</v>
+        <v>18457</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>18229</v>
+        <v>18761</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>32148</v>
+        <v>32297</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>22897</v>
+        <v>22378</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>21883</v>
+        <v>21592</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>58273</v>
+        <v>58062</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>93166</v>
+        <v>92929</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>62780</v>
+        <v>62338</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>44078</v>
+        <v>42364</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>60005</v>
+        <v>59879</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>84221</v>
+        <v>85080</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>59304</v>
+        <v>58042</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>37113</v>
+        <v>37050</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>35463</v>
+        <v>35565</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>52800</v>
+        <v>52127</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>40415</v>
+        <v>40400</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>36745</v>
+        <v>37275</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>89360</v>
+        <v>87444</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>129348</v>
+        <v>128492</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>93596</v>
+        <v>94740</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>67945</v>
+        <v>68262</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>26169</v>
+        <v>26808</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>39216</v>
+        <v>38754</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>29314</v>
+        <v>30080</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>18215</v>
+        <v>18430</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>13168</v>
+        <v>12374</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>31089</v>
+        <v>30636</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>14017</v>
+        <v>14274</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>14771</v>
+        <v>14846</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>42898</v>
+        <v>42290</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>74589</v>
+        <v>75786</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>49070</v>
+        <v>48947</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>38365</v>
+        <v>38199</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>46721</v>
+        <v>46185</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>63880</v>
+        <v>63757</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>51236</v>
+        <v>53488</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>41846</v>
+        <v>41434</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>24847</v>
+        <v>25436</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>51653</v>
+        <v>51362</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>29654</v>
+        <v>31027</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>30678</v>
+        <v>30188</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>67477</v>
+        <v>66123</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>107868</v>
+        <v>110405</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>76347</v>
+        <v>75748</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>67352</v>
+        <v>65094</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>27444</v>
+        <v>27712</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>43249</v>
+        <v>41646</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>40358</v>
+        <v>40339</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>24279</v>
+        <v>23893</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>24111</v>
+        <v>24933</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>22723</v>
+        <v>22840</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>34284</v>
+        <v>33158</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>27493</v>
+        <v>27207</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>56648</v>
+        <v>56357</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>71720</v>
+        <v>69884</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>79814</v>
+        <v>79292</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>56385</v>
+        <v>57090</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>47899</v>
+        <v>48499</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>68966</v>
+        <v>68504</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>65950</v>
+        <v>65465</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>45964</v>
+        <v>46008</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>41787</v>
+        <v>42473</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>42234</v>
+        <v>43768</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>57407</v>
+        <v>56071</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>48136</v>
+        <v>45847</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>84171</v>
+        <v>84767</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>104008</v>
+        <v>102721</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>114297</v>
+        <v>112806</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>85703</v>
+        <v>84650</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>124538</v>
+        <v>124726</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>193403</v>
+        <v>193998</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>143915</v>
+        <v>141283</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>83319</v>
+        <v>82660</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>79778</v>
+        <v>77509</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>123209</v>
+        <v>125088</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>102146</v>
+        <v>103128</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>81768</v>
+        <v>82151</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>214068</v>
+        <v>211155</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>331366</v>
+        <v>331613</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>251397</v>
+        <v>255830</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>173290</v>
+        <v>175719</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>168663</v>
+        <v>168155</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>246367</v>
+        <v>247068</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>188253</v>
+        <v>185753</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>122456</v>
+        <v>121819</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>110082</v>
+        <v>109796</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>162675</v>
+        <v>164512</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>138095</v>
+        <v>139909</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>112371</v>
+        <v>114159</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>268305</v>
+        <v>267258</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>396605</v>
+        <v>397543</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>311132</v>
+        <v>315461</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>226950</v>
+        <v>227045</v>
       </c>
     </row>
     <row r="24">
